--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T07:19:23+00:00</t>
+    <t>2021-09-12T07:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T07:37:00+00:00</t>
+    <t>2021-09-18T10:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-18T10:16:13+00:00</t>
+    <t>2021-09-25T01:43:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-25T01:43:32+00:00</t>
+    <t>2021-09-26T03:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T03:05:54+00:00</t>
+    <t>2021-09-26T04:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from CodeSystem Occupat" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from CodeSystem Occup" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T04:27:45+00:00</t>
+    <t>2021-09-30T09:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-30T09:59:38+00:00</t>
+    <t>2021-10-06T13:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:35:19+00:00</t>
+    <t>2021-10-06T13:42:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:42:37+00:00</t>
+    <t>2021-10-29T12:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:02:00+00:00</t>
+    <t>2021-10-29T12:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:05:23+00:00</t>
+    <t>2021-10-29T13:08:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:08:24+00:00</t>
+    <t>2021-10-29T13:58:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:58:33+00:00</t>
+    <t>2022-01-16T18:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:45:36+00:00</t>
+    <t>2022-01-16T18:50:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:50:07+00:00</t>
+    <t>2022-01-16T18:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:51:47+00:00</t>
+    <t>2022-01-16T19:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:00:02+00:00</t>
+    <t>2022-01-16T19:22:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:22:42+00:00</t>
+    <t>2022-02-25T20:09:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:09:43+00:00</t>
+    <t>2022-02-25T20:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:11:49+00:00</t>
+    <t>2022-02-25T20:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:13:21+00:00</t>
+    <t>2022-02-25T20:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:43:03+00:00</t>
+    <t>2022-02-25T20:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:52:14+00:00</t>
+    <t>2022-02-25T20:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:59:17+00:00</t>
+    <t>2022-02-25T21:00:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:00:17+00:00</t>
+    <t>2022-02-25T21:34:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:34:18+00:00</t>
+    <t>2022-02-25T21:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:36:43+00:00</t>
+    <t>2022-03-02T07:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T07:06:01+00:00</t>
+    <t>2022-03-02T18:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T18:06:48+00:00</t>
+    <t>2022-03-04T08:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:28:51+00:00</t>
+    <t>2022-03-04T08:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:37:21+00:00</t>
+    <t>2022-03-08T06:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-08T06:55:36+00:00</t>
+    <t>2022-03-16T09:10:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:10:28+00:00</t>
+    <t>2022-03-23T08:06:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T08:06:35+00:00</t>
+    <t>2022-03-25T09:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-occupation.xlsx
+++ b/ValueSet-vs-hiv-occupation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T09:06:52+00:00</t>
+    <t>2022-03-29T15:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
